--- a/Чек-лист.xlsx
+++ b/Чек-лист.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28814"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1951" documentId="11_7916E29CBBF1F2CA8BDE464F9762ACB101D844CB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02F43CC2-E63D-4DA2-9E12-5947319EA46F}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1234\Downloads\Треугольник\Треугольник\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="18450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="18450"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="496">
   <si>
     <t>ID теста</t>
   </si>
@@ -1516,12 +1520,15 @@
   </si>
   <si>
     <t>5.75</t>
+  </si>
+  <si>
+    <t>bug-12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -1704,15 +1711,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1775,9 +1785,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1804,9 +1811,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1822,9 +1826,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1836,12 +1837,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1858,9 +1853,28 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1"/>
+    <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2150,26 +2164,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158:G158"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F177" sqref="F177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14" style="37" customWidth="1"/>
-    <col min="2" max="2" width="25.875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="45.125" customWidth="1"/>
-    <col min="4" max="4" width="65.625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="24.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14" style="34" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" customWidth="1"/>
+    <col min="4" max="4" width="65.5703125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -2192,25 +2206,25 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="1:9" ht="63" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="37" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -2222,16 +2236,16 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="63" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="36" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="37" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -2243,16 +2257,16 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="63" customHeight="1">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="36" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="37" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -2264,7 +2278,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="63" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="35" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="14" t="s">
@@ -2273,7 +2287,7 @@
       <c r="C6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="37" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -2288,7 +2302,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="63" customHeight="1">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="35" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -2297,7 +2311,7 @@
       <c r="C7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="37" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -2309,7 +2323,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="63" customHeight="1">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="35" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -2318,7 +2332,7 @@
       <c r="C8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="37" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -2330,7 +2344,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="63" customHeight="1">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="35" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -2339,7 +2353,7 @@
       <c r="C9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="37" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -2354,14 +2368,14 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="63" customHeight="1">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="35" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="37" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -2373,27 +2387,27 @@
       </c>
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" spans="1:9" ht="63" customHeight="1">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="32" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="37" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="8" t="s">
@@ -2405,16 +2419,16 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="63" customHeight="1">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="37" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="8" t="s">
@@ -2426,27 +2440,27 @@
       </c>
     </row>
     <row r="14" spans="1:9" s="4" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="36" t="s">
         <v>52</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="37" t="s">
         <v>54</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -2460,16 +2474,16 @@
       <c r="I15"/>
     </row>
     <row r="16" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="36" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="37" t="s">
         <v>58</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -2483,16 +2497,16 @@
       <c r="I16"/>
     </row>
     <row r="17" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="36" t="s">
         <v>56</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="37" t="s">
         <v>61</v>
       </c>
       <c r="E17" s="8" t="s">
@@ -2506,7 +2520,7 @@
       <c r="I17"/>
     </row>
     <row r="18" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="35" t="s">
         <v>62</v>
       </c>
       <c r="B18" s="14" t="s">
@@ -2515,7 +2529,7 @@
       <c r="C18" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="37" t="s">
         <v>64</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -2531,7 +2545,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="35" t="s">
         <v>65</v>
       </c>
       <c r="B19" s="14" t="s">
@@ -2540,7 +2554,7 @@
       <c r="C19" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="37" t="s">
         <v>67</v>
       </c>
       <c r="E19" s="8" t="s">
@@ -2554,7 +2568,7 @@
       <c r="I19"/>
     </row>
     <row r="20" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="35" t="s">
         <v>68</v>
       </c>
       <c r="B20" s="14" t="s">
@@ -2563,7 +2577,7 @@
       <c r="C20" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="37" t="s">
         <v>70</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -2577,7 +2591,7 @@
       <c r="I20"/>
     </row>
     <row r="21" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="35" t="s">
         <v>71</v>
       </c>
       <c r="B21" s="14" t="s">
@@ -2586,7 +2600,7 @@
       <c r="C21" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="37" t="s">
         <v>73</v>
       </c>
       <c r="E21" s="8" t="s">
@@ -2602,7 +2616,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="35" t="s">
         <v>74</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -2611,7 +2625,7 @@
       <c r="C22" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="37" t="s">
         <v>76</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -2625,7 +2639,7 @@
       <c r="I22"/>
     </row>
     <row r="23" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="35" t="s">
         <v>77</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -2648,10 +2662,10 @@
       <c r="I23"/>
     </row>
     <row r="24" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="25" t="s">
         <v>78</v>
       </c>
       <c r="C24" s="14" t="s">
@@ -2660,10 +2674,10 @@
       <c r="D24" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="44" t="s">
         <v>85</v>
       </c>
       <c r="G24" s="7" t="s">
@@ -2673,10 +2687,10 @@
       <c r="I24"/>
     </row>
     <row r="25" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="24" t="s">
         <v>78</v>
       </c>
       <c r="C25" s="14" t="s">
@@ -2696,7 +2710,7 @@
       <c r="I25"/>
     </row>
     <row r="26" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="35" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -2708,10 +2722,10 @@
       <c r="D26" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="45" t="s">
         <v>92</v>
       </c>
       <c r="G26" s="7" t="s">
@@ -2721,7 +2735,7 @@
       <c r="I26"/>
     </row>
     <row r="27" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="35" t="s">
         <v>93</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -2733,10 +2747,10 @@
       <c r="D27" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="45" t="s">
         <v>85</v>
       </c>
       <c r="G27" s="7" t="s">
@@ -2746,7 +2760,7 @@
       <c r="I27"/>
     </row>
     <row r="28" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="35" t="s">
         <v>96</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -2769,7 +2783,7 @@
       <c r="I28"/>
     </row>
     <row r="29" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="35" t="s">
         <v>99</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -2792,7 +2806,7 @@
       <c r="I29"/>
     </row>
     <row r="30" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="35" t="s">
         <v>102</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -2804,10 +2818,10 @@
       <c r="D30" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="F30" s="44" t="s">
         <v>105</v>
       </c>
       <c r="G30" s="7" t="s">
@@ -2817,7 +2831,7 @@
       <c r="I30"/>
     </row>
     <row r="31" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="35" t="s">
         <v>106</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -2829,10 +2843,10 @@
       <c r="D31" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="F31" s="44" t="s">
         <v>105</v>
       </c>
       <c r="G31" s="7" t="s">
@@ -2842,7 +2856,7 @@
       <c r="I31"/>
     </row>
     <row r="32" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="35" t="s">
         <v>109</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -2854,10 +2868,10 @@
       <c r="D32" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="F32" s="44" t="s">
         <v>105</v>
       </c>
       <c r="G32" s="7" t="s">
@@ -2867,7 +2881,7 @@
       <c r="I32"/>
     </row>
     <row r="33" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="35" t="s">
         <v>110</v>
       </c>
       <c r="B33" s="9" t="s">
@@ -2879,10 +2893,10 @@
       <c r="D33" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="44" t="s">
         <v>105</v>
       </c>
       <c r="G33" s="7" t="s">
@@ -2892,7 +2906,7 @@
       <c r="I33"/>
     </row>
     <row r="34" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="35" t="s">
         <v>112</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -2904,10 +2918,10 @@
       <c r="D34" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E34" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="44" t="s">
         <v>114</v>
       </c>
       <c r="G34" s="7" t="s">
@@ -2917,7 +2931,7 @@
       <c r="I34"/>
     </row>
     <row r="35" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="35" t="s">
         <v>115</v>
       </c>
       <c r="B35" s="9" t="s">
@@ -2929,10 +2943,10 @@
       <c r="D35" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="44" t="s">
         <v>114</v>
       </c>
       <c r="G35" s="7" t="s">
@@ -2942,7 +2956,7 @@
       <c r="I35"/>
     </row>
     <row r="36" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="35" t="s">
         <v>117</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -2954,10 +2968,10 @@
       <c r="D36" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F36" s="44" t="s">
         <v>114</v>
       </c>
       <c r="G36" s="7" t="s">
@@ -2967,7 +2981,7 @@
       <c r="I36"/>
     </row>
     <row r="37" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="35" t="s">
         <v>119</v>
       </c>
       <c r="B37" s="9" t="s">
@@ -2979,10 +2993,10 @@
       <c r="D37" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F37" s="19" t="s">
+      <c r="F37" s="44" t="s">
         <v>114</v>
       </c>
       <c r="G37" s="7" t="s">
@@ -2992,7 +3006,7 @@
       <c r="I37"/>
     </row>
     <row r="38" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="35" t="s">
         <v>121</v>
       </c>
       <c r="B38" s="9" t="s">
@@ -3015,7 +3029,7 @@
       <c r="I38"/>
     </row>
     <row r="39" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="35" t="s">
         <v>124</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -3038,7 +3052,7 @@
       <c r="I39"/>
     </row>
     <row r="40" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="35" t="s">
         <v>128</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -3061,7 +3075,7 @@
       <c r="I40"/>
     </row>
     <row r="41" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="35" t="s">
         <v>130</v>
       </c>
       <c r="B41" s="9" t="s">
@@ -3084,7 +3098,7 @@
       <c r="I41"/>
     </row>
     <row r="42" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="35" t="s">
         <v>132</v>
       </c>
       <c r="B42" s="9" t="s">
@@ -3107,7 +3121,7 @@
       <c r="I42"/>
     </row>
     <row r="43" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="35" t="s">
         <v>134</v>
       </c>
       <c r="B43" s="9" t="s">
@@ -3130,7 +3144,7 @@
       <c r="I43"/>
     </row>
     <row r="44" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A44" s="40" t="s">
+      <c r="A44" s="35" t="s">
         <v>136</v>
       </c>
       <c r="B44" s="9" t="s">
@@ -3153,7 +3167,7 @@
       <c r="I44"/>
     </row>
     <row r="45" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="35" t="s">
         <v>138</v>
       </c>
       <c r="B45" s="9" t="s">
@@ -3176,7 +3190,7 @@
       <c r="I45"/>
     </row>
     <row r="46" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="35" t="s">
         <v>140</v>
       </c>
       <c r="B46" s="9" t="s">
@@ -3199,7 +3213,7 @@
       <c r="I46"/>
     </row>
     <row r="47" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="35" t="s">
         <v>142</v>
       </c>
       <c r="B47" s="9" t="s">
@@ -3222,7 +3236,7 @@
       <c r="I47"/>
     </row>
     <row r="48" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A48" s="40" t="s">
+      <c r="A48" s="35" t="s">
         <v>145</v>
       </c>
       <c r="B48" s="9" t="s">
@@ -3245,7 +3259,7 @@
       <c r="I48"/>
     </row>
     <row r="49" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A49" s="40" t="s">
+      <c r="A49" s="35" t="s">
         <v>148</v>
       </c>
       <c r="B49" s="9" t="s">
@@ -3268,7 +3282,7 @@
       <c r="I49"/>
     </row>
     <row r="50" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A50" s="40" t="s">
+      <c r="A50" s="35" t="s">
         <v>150</v>
       </c>
       <c r="B50" s="9" t="s">
@@ -3291,7 +3305,7 @@
       <c r="I50"/>
     </row>
     <row r="51" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="35" t="s">
         <v>154</v>
       </c>
       <c r="B51" s="9" t="s">
@@ -3314,7 +3328,7 @@
       <c r="I51"/>
     </row>
     <row r="52" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A52" s="40" t="s">
+      <c r="A52" s="35" t="s">
         <v>156</v>
       </c>
       <c r="B52" s="9" t="s">
@@ -3337,7 +3351,7 @@
       <c r="I52"/>
     </row>
     <row r="53" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="35" t="s">
         <v>158</v>
       </c>
       <c r="B53" s="9" t="s">
@@ -3360,7 +3374,7 @@
       <c r="I53"/>
     </row>
     <row r="54" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A54" s="40" t="s">
+      <c r="A54" s="35" t="s">
         <v>160</v>
       </c>
       <c r="B54" s="9" t="s">
@@ -3369,7 +3383,7 @@
       <c r="C54" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="D54" s="19" t="s">
         <v>163</v>
       </c>
       <c r="E54" s="8" t="s">
@@ -3383,7 +3397,7 @@
       <c r="I54"/>
     </row>
     <row r="55" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A55" s="40" t="s">
+      <c r="A55" s="35" t="s">
         <v>164</v>
       </c>
       <c r="B55" s="9" t="s">
@@ -3392,7 +3406,7 @@
       <c r="C55" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="D55" s="19" t="s">
         <v>166</v>
       </c>
       <c r="E55" s="8" t="s">
@@ -3406,7 +3420,7 @@
       <c r="I55"/>
     </row>
     <row r="56" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A56" s="40" t="s">
+      <c r="A56" s="35" t="s">
         <v>167</v>
       </c>
       <c r="B56" s="9" t="s">
@@ -3415,7 +3429,7 @@
       <c r="C56" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="D56" s="20" t="s">
+      <c r="D56" s="19" t="s">
         <v>170</v>
       </c>
       <c r="E56" s="8" t="s">
@@ -3429,7 +3443,7 @@
       <c r="I56"/>
     </row>
     <row r="57" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A57" s="40" t="s">
+      <c r="A57" s="35" t="s">
         <v>171</v>
       </c>
       <c r="B57" s="9" t="s">
@@ -3438,7 +3452,7 @@
       <c r="C57" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D57" s="20" t="s">
+      <c r="D57" s="19" t="s">
         <v>174</v>
       </c>
       <c r="E57" s="8" t="s">
@@ -3452,7 +3466,7 @@
       <c r="I57"/>
     </row>
     <row r="58" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A58" s="40" t="s">
+      <c r="A58" s="35" t="s">
         <v>175</v>
       </c>
       <c r="B58" s="9" t="s">
@@ -3461,7 +3475,7 @@
       <c r="C58" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="D58" s="19" t="s">
         <v>178</v>
       </c>
       <c r="E58" s="8" t="s">
@@ -3475,16 +3489,16 @@
       <c r="I58"/>
     </row>
     <row r="59" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A59" s="40" t="s">
+      <c r="A59" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="24" t="s">
         <v>180</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="D59" s="19" t="s">
         <v>182</v>
       </c>
       <c r="E59" s="8" t="s">
@@ -3498,7 +3512,7 @@
       <c r="I59"/>
     </row>
     <row r="60" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A60" s="40" t="s">
+      <c r="A60" s="35" t="s">
         <v>183</v>
       </c>
       <c r="B60" s="9" t="s">
@@ -3507,7 +3521,7 @@
       <c r="C60" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="D60" s="20" t="s">
+      <c r="D60" s="19" t="s">
         <v>186</v>
       </c>
       <c r="E60" s="8" t="s">
@@ -3521,7 +3535,7 @@
       <c r="I60"/>
     </row>
     <row r="61" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A61" s="40" t="s">
+      <c r="A61" s="35" t="s">
         <v>187</v>
       </c>
       <c r="B61" s="9" t="s">
@@ -3530,7 +3544,7 @@
       <c r="C61" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D61" s="20" t="s">
+      <c r="D61" s="19" t="s">
         <v>190</v>
       </c>
       <c r="E61" s="8" t="s">
@@ -3544,7 +3558,7 @@
       <c r="I61"/>
     </row>
     <row r="62" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A62" s="40" t="s">
+      <c r="A62" s="35" t="s">
         <v>191</v>
       </c>
       <c r="B62" s="9" t="s">
@@ -3553,7 +3567,7 @@
       <c r="C62" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D62" s="20" t="s">
+      <c r="D62" s="19" t="s">
         <v>194</v>
       </c>
       <c r="E62" s="8" t="s">
@@ -3567,7 +3581,7 @@
       <c r="I62"/>
     </row>
     <row r="63" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A63" s="40" t="s">
+      <c r="A63" s="35" t="s">
         <v>195</v>
       </c>
       <c r="B63" s="9" t="s">
@@ -3576,7 +3590,7 @@
       <c r="C63" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D63" s="20" t="s">
+      <c r="D63" s="19" t="s">
         <v>198</v>
       </c>
       <c r="E63" s="8" t="s">
@@ -3590,7 +3604,7 @@
       <c r="I63"/>
     </row>
     <row r="64" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A64" s="40" t="s">
+      <c r="A64" s="35" t="s">
         <v>199</v>
       </c>
       <c r="B64" s="14" t="s">
@@ -3599,7 +3613,7 @@
       <c r="C64" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="D64" s="20" t="s">
+      <c r="D64" s="19" t="s">
         <v>202</v>
       </c>
       <c r="E64" s="8" t="s">
@@ -3613,7 +3627,7 @@
       <c r="I64"/>
     </row>
     <row r="65" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A65" s="40" t="s">
+      <c r="A65" s="35" t="s">
         <v>203</v>
       </c>
       <c r="B65" s="14" t="s">
@@ -3622,7 +3636,7 @@
       <c r="C65" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="D65" s="21" t="s">
+      <c r="D65" s="20" t="s">
         <v>205</v>
       </c>
       <c r="E65" s="8" t="s">
@@ -3636,7 +3650,7 @@
       <c r="I65"/>
     </row>
     <row r="66" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A66" s="40" t="s">
+      <c r="A66" s="35" t="s">
         <v>206</v>
       </c>
       <c r="B66" s="14" t="s">
@@ -3645,7 +3659,7 @@
       <c r="C66" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="D66" s="21" t="s">
+      <c r="D66" s="20" t="s">
         <v>209</v>
       </c>
       <c r="E66" s="8" t="s">
@@ -3659,7 +3673,7 @@
       <c r="I66"/>
     </row>
     <row r="67" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A67" s="40" t="s">
+      <c r="A67" s="35" t="s">
         <v>210</v>
       </c>
       <c r="B67" s="14" t="s">
@@ -3668,7 +3682,7 @@
       <c r="C67" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="D67" s="21" t="s">
+      <c r="D67" s="20" t="s">
         <v>213</v>
       </c>
       <c r="E67" s="8" t="s">
@@ -3682,7 +3696,7 @@
       <c r="I67"/>
     </row>
     <row r="68" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A68" s="40" t="s">
+      <c r="A68" s="35" t="s">
         <v>214</v>
       </c>
       <c r="B68" s="15" t="s">
@@ -3691,7 +3705,7 @@
       <c r="C68" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="D68" s="21" t="s">
+      <c r="D68" s="20" t="s">
         <v>217</v>
       </c>
       <c r="E68" s="8" t="s">
@@ -3705,7 +3719,7 @@
       <c r="I68"/>
     </row>
     <row r="69" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A69" s="40" t="s">
+      <c r="A69" s="35" t="s">
         <v>218</v>
       </c>
       <c r="B69" s="14" t="s">
@@ -3714,7 +3728,7 @@
       <c r="C69" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="D69" s="21" t="s">
+      <c r="D69" s="20" t="s">
         <v>220</v>
       </c>
       <c r="E69" s="8" t="s">
@@ -3728,7 +3742,7 @@
       <c r="I69"/>
     </row>
     <row r="70" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A70" s="40" t="s">
+      <c r="A70" s="35" t="s">
         <v>221</v>
       </c>
       <c r="B70" s="14" t="s">
@@ -3737,7 +3751,7 @@
       <c r="C70" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="D70" s="21" t="s">
+      <c r="D70" s="20" t="s">
         <v>220</v>
       </c>
       <c r="E70" s="8" t="s">
@@ -3751,7 +3765,7 @@
       <c r="I70"/>
     </row>
     <row r="71" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A71" s="40" t="s">
+      <c r="A71" s="35" t="s">
         <v>224</v>
       </c>
       <c r="B71" s="14" t="s">
@@ -3760,7 +3774,7 @@
       <c r="C71" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="D71" s="21" t="s">
+      <c r="D71" s="20" t="s">
         <v>227</v>
       </c>
       <c r="E71" s="8" t="s">
@@ -3774,7 +3788,7 @@
       <c r="I71"/>
     </row>
     <row r="72" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A72" s="40" t="s">
+      <c r="A72" s="35" t="s">
         <v>228</v>
       </c>
       <c r="B72" s="14" t="s">
@@ -3783,7 +3797,7 @@
       <c r="C72" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="D72" s="21" t="s">
+      <c r="D72" s="20" t="s">
         <v>231</v>
       </c>
       <c r="E72" s="8" t="s">
@@ -3797,7 +3811,7 @@
       <c r="I72"/>
     </row>
     <row r="73" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A73" s="40" t="s">
+      <c r="A73" s="35" t="s">
         <v>232</v>
       </c>
       <c r="B73" s="15" t="s">
@@ -3806,7 +3820,7 @@
       <c r="C73" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="D73" s="21" t="s">
+      <c r="D73" s="20" t="s">
         <v>234</v>
       </c>
       <c r="E73" s="8" t="s">
@@ -3820,7 +3834,7 @@
       <c r="I73"/>
     </row>
     <row r="74" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A74" s="40" t="s">
+      <c r="A74" s="35" t="s">
         <v>235</v>
       </c>
       <c r="B74" s="15" t="s">
@@ -3829,7 +3843,7 @@
       <c r="C74" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="D74" s="21" t="s">
+      <c r="D74" s="20" t="s">
         <v>237</v>
       </c>
       <c r="E74" s="8" t="s">
@@ -3843,7 +3857,7 @@
       <c r="I74"/>
     </row>
     <row r="75" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A75" s="40" t="s">
+      <c r="A75" s="35" t="s">
         <v>238</v>
       </c>
       <c r="B75" s="15" t="s">
@@ -3852,7 +3866,7 @@
       <c r="C75" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="D75" s="21" t="s">
+      <c r="D75" s="20" t="s">
         <v>123</v>
       </c>
       <c r="E75" s="8" t="s">
@@ -3866,7 +3880,7 @@
       <c r="I75"/>
     </row>
     <row r="76" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A76" s="40" t="s">
+      <c r="A76" s="35" t="s">
         <v>240</v>
       </c>
       <c r="B76" s="15" t="s">
@@ -3875,7 +3889,7 @@
       <c r="C76" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="D76" s="21" t="s">
+      <c r="D76" s="20" t="s">
         <v>242</v>
       </c>
       <c r="E76" s="8" t="s">
@@ -3889,7 +3903,7 @@
       <c r="I76"/>
     </row>
     <row r="77" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A77" s="40" t="s">
+      <c r="A77" s="35" t="s">
         <v>243</v>
       </c>
       <c r="B77" s="15" t="s">
@@ -3898,7 +3912,7 @@
       <c r="C77" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="D77" s="21" t="s">
+      <c r="D77" s="20" t="s">
         <v>123</v>
       </c>
       <c r="E77" s="8" t="s">
@@ -3912,7 +3926,7 @@
       <c r="I77"/>
     </row>
     <row r="78" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A78" s="40" t="s">
+      <c r="A78" s="35" t="s">
         <v>245</v>
       </c>
       <c r="B78" s="15" t="s">
@@ -3921,7 +3935,7 @@
       <c r="C78" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="D78" s="20" t="s">
+      <c r="D78" s="19" t="s">
         <v>248</v>
       </c>
       <c r="E78" s="8" t="s">
@@ -3935,7 +3949,7 @@
       <c r="I78"/>
     </row>
     <row r="79" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A79" s="40" t="s">
+      <c r="A79" s="35" t="s">
         <v>249</v>
       </c>
       <c r="B79" s="15" t="s">
@@ -3944,7 +3958,7 @@
       <c r="C79" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="D79" s="20" t="s">
+      <c r="D79" s="19" t="s">
         <v>251</v>
       </c>
       <c r="E79" s="8" t="s">
@@ -3958,7 +3972,7 @@
       <c r="I79"/>
     </row>
     <row r="80" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A80" s="40" t="s">
+      <c r="A80" s="35" t="s">
         <v>252</v>
       </c>
       <c r="B80" s="15" t="s">
@@ -3967,7 +3981,7 @@
       <c r="C80" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="D80" s="20" t="s">
+      <c r="D80" s="19" t="s">
         <v>254</v>
       </c>
       <c r="E80" s="8" t="s">
@@ -3981,7 +3995,7 @@
       <c r="I80"/>
     </row>
     <row r="81" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A81" s="40" t="s">
+      <c r="A81" s="35" t="s">
         <v>255</v>
       </c>
       <c r="B81" s="15" t="s">
@@ -3990,7 +4004,7 @@
       <c r="C81" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="D81" s="20" t="s">
+      <c r="D81" s="19" t="s">
         <v>257</v>
       </c>
       <c r="E81" s="8" t="s">
@@ -4004,7 +4018,7 @@
       <c r="I81"/>
     </row>
     <row r="82" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A82" s="40" t="s">
+      <c r="A82" s="35" t="s">
         <v>258</v>
       </c>
       <c r="B82" s="15" t="s">
@@ -4013,7 +4027,7 @@
       <c r="C82" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="D82" s="20" t="s">
+      <c r="D82" s="19" t="s">
         <v>260</v>
       </c>
       <c r="E82" s="8" t="s">
@@ -4027,7 +4041,7 @@
       <c r="I82"/>
     </row>
     <row r="83" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A83" s="40" t="s">
+      <c r="A83" s="35" t="s">
         <v>261</v>
       </c>
       <c r="B83" s="15" t="s">
@@ -4036,7 +4050,7 @@
       <c r="C83" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="D83" s="20" t="s">
+      <c r="D83" s="19" t="s">
         <v>263</v>
       </c>
       <c r="E83" s="8" t="s">
@@ -4050,7 +4064,7 @@
       <c r="I83"/>
     </row>
     <row r="84" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A84" s="40" t="s">
+      <c r="A84" s="35" t="s">
         <v>264</v>
       </c>
       <c r="B84" s="15" t="s">
@@ -4059,7 +4073,7 @@
       <c r="C84" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="D84" s="20" t="s">
+      <c r="D84" s="19" t="s">
         <v>266</v>
       </c>
       <c r="E84" s="8" t="s">
@@ -4073,7 +4087,7 @@
       <c r="I84"/>
     </row>
     <row r="85" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A85" s="40" t="s">
+      <c r="A85" s="35" t="s">
         <v>267</v>
       </c>
       <c r="B85" s="15" t="s">
@@ -4082,7 +4096,7 @@
       <c r="C85" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="D85" s="21" t="s">
+      <c r="D85" s="20" t="s">
         <v>269</v>
       </c>
       <c r="E85" s="8" t="s">
@@ -4096,7 +4110,7 @@
       <c r="I85"/>
     </row>
     <row r="86" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A86" s="40" t="s">
+      <c r="A86" s="35" t="s">
         <v>270</v>
       </c>
       <c r="B86" s="15" t="s">
@@ -4105,13 +4119,13 @@
       <c r="C86" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="D86" s="21" t="s">
+      <c r="D86" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="E86" s="23" t="s">
+      <c r="E86" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F86" s="19" t="s">
+      <c r="F86" s="43" t="s">
         <v>273</v>
       </c>
       <c r="G86" s="7" t="s">
@@ -4121,16 +4135,16 @@
       <c r="I86"/>
     </row>
     <row r="87" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A87" s="40" t="s">
+      <c r="A87" s="35" t="s">
         <v>274</v>
       </c>
       <c r="B87" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C87" s="22" t="s">
+      <c r="C87" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D87" s="24" t="s">
+      <c r="D87" s="23" t="s">
         <v>276</v>
       </c>
       <c r="E87" s="8" t="s">
@@ -4144,16 +4158,16 @@
       <c r="I87"/>
     </row>
     <row r="88" spans="1:9" s="4" customFormat="1" ht="63" customHeight="1">
-      <c r="A88" s="40" t="s">
+      <c r="A88" s="35" t="s">
         <v>277</v>
       </c>
       <c r="B88" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C88" s="22" t="s">
+      <c r="C88" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="D88" s="24" t="s">
+      <c r="D88" s="23" t="s">
         <v>279</v>
       </c>
       <c r="E88" s="8" t="s">
@@ -4167,27 +4181,27 @@
       <c r="I88"/>
     </row>
     <row r="89" spans="1:9" ht="33" customHeight="1">
-      <c r="A89" s="38" t="s">
+      <c r="A89" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="B89" s="38"/>
-      <c r="C89" s="38"/>
-      <c r="D89" s="38"/>
-      <c r="E89" s="38"/>
-      <c r="F89" s="38"/>
-      <c r="G89" s="38"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="40"/>
+      <c r="F89" s="40"/>
+      <c r="G89" s="40"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
     </row>
     <row r="90" spans="1:9" ht="63" customHeight="1">
-      <c r="A90" s="40" t="s">
+      <c r="A90" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="B90" s="41"/>
+      <c r="B90" s="36"/>
       <c r="C90" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="42" t="s">
+      <c r="D90" s="37" t="s">
         <v>282</v>
       </c>
       <c r="E90" s="8" t="s">
@@ -4199,16 +4213,16 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="63" customHeight="1">
-      <c r="A91" s="40" t="s">
+      <c r="A91" s="35" t="s">
         <v>283</v>
       </c>
-      <c r="B91" s="41" t="s">
+      <c r="B91" s="36" t="s">
         <v>284</v>
       </c>
       <c r="C91" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D91" s="42" t="s">
+      <c r="D91" s="37" t="s">
         <v>285</v>
       </c>
       <c r="E91" s="8" t="s">
@@ -4220,16 +4234,16 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="63" customHeight="1">
-      <c r="A92" s="40" t="s">
+      <c r="A92" s="35" t="s">
         <v>286</v>
       </c>
-      <c r="B92" s="41" t="s">
+      <c r="B92" s="36" t="s">
         <v>287</v>
       </c>
       <c r="C92" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D92" s="42" t="s">
+      <c r="D92" s="37" t="s">
         <v>61</v>
       </c>
       <c r="E92" s="8" t="s">
@@ -4241,7 +4255,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="63" customHeight="1">
-      <c r="A93" s="40" t="s">
+      <c r="A93" s="35" t="s">
         <v>288</v>
       </c>
       <c r="B93" s="14" t="s">
@@ -4250,7 +4264,7 @@
       <c r="C93" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D93" s="42" t="s">
+      <c r="D93" s="37" t="s">
         <v>64</v>
       </c>
       <c r="E93" s="8" t="s">
@@ -4265,7 +4279,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" ht="63" customHeight="1">
-      <c r="A94" s="40" t="s">
+      <c r="A94" s="35" t="s">
         <v>290</v>
       </c>
       <c r="B94" s="14" t="s">
@@ -4274,7 +4288,7 @@
       <c r="C94" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="42" t="s">
+      <c r="D94" s="37" t="s">
         <v>67</v>
       </c>
       <c r="E94" s="8" t="s">
@@ -4286,7 +4300,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" ht="63" customHeight="1">
-      <c r="A95" s="40" t="s">
+      <c r="A95" s="35" t="s">
         <v>291</v>
       </c>
       <c r="B95" s="14" t="s">
@@ -4295,7 +4309,7 @@
       <c r="C95" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D95" s="42" t="s">
+      <c r="D95" s="37" t="s">
         <v>70</v>
       </c>
       <c r="E95" s="8" t="s">
@@ -4307,7 +4321,7 @@
       </c>
     </row>
     <row r="96" spans="1:9" ht="63" customHeight="1">
-      <c r="A96" s="40" t="s">
+      <c r="A96" s="35" t="s">
         <v>293</v>
       </c>
       <c r="B96" s="14" t="s">
@@ -4316,7 +4330,7 @@
       <c r="C96" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D96" s="42" t="s">
+      <c r="D96" s="37" t="s">
         <v>295</v>
       </c>
       <c r="E96" s="8" t="s">
@@ -4331,7 +4345,7 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="63" customHeight="1">
-      <c r="A97" s="40" t="s">
+      <c r="A97" s="35" t="s">
         <v>296</v>
       </c>
       <c r="B97" s="14" t="s">
@@ -4340,7 +4354,7 @@
       <c r="C97" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D97" s="42" t="s">
+      <c r="D97" s="37" t="s">
         <v>76</v>
       </c>
       <c r="E97" s="8" t="s">
@@ -4352,7 +4366,7 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="63" customHeight="1">
-      <c r="A98" s="40" t="s">
+      <c r="A98" s="35" t="s">
         <v>297</v>
       </c>
       <c r="B98" s="9" t="s">
@@ -4373,7 +4387,7 @@
       </c>
     </row>
     <row r="99" spans="1:7" ht="63" customHeight="1">
-      <c r="A99" s="40" t="s">
+      <c r="A99" s="35" t="s">
         <v>298</v>
       </c>
       <c r="B99" s="9" t="s">
@@ -4394,7 +4408,7 @@
       </c>
     </row>
     <row r="100" spans="1:7" ht="63" customHeight="1">
-      <c r="A100" s="40" t="s">
+      <c r="A100" s="35" t="s">
         <v>299</v>
       </c>
       <c r="B100" s="9" t="s">
@@ -4415,7 +4429,7 @@
       </c>
     </row>
     <row r="101" spans="1:7" ht="63" customHeight="1">
-      <c r="A101" s="40" t="s">
+      <c r="A101" s="35" t="s">
         <v>300</v>
       </c>
       <c r="B101" s="9" t="s">
@@ -4436,7 +4450,7 @@
       </c>
     </row>
     <row r="102" spans="1:7" ht="63" customHeight="1">
-      <c r="A102" s="40" t="s">
+      <c r="A102" s="35" t="s">
         <v>301</v>
       </c>
       <c r="B102" s="15" t="s">
@@ -4457,7 +4471,7 @@
       </c>
     </row>
     <row r="103" spans="1:7" ht="63" customHeight="1">
-      <c r="A103" s="40" t="s">
+      <c r="A103" s="35" t="s">
         <v>302</v>
       </c>
       <c r="B103" s="9" t="s">
@@ -4469,18 +4483,18 @@
       <c r="D103" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="E103" s="23" t="s">
+      <c r="E103" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F103" s="19" t="s">
-        <v>306</v>
+      <c r="F103" s="44" t="s">
+        <v>495</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="63" customHeight="1">
-      <c r="A104" s="40" t="s">
+      <c r="A104" s="35" t="s">
         <v>307</v>
       </c>
       <c r="B104" s="9" t="s">
@@ -4501,7 +4515,7 @@
       </c>
     </row>
     <row r="105" spans="1:7" ht="63" customHeight="1">
-      <c r="A105" s="40" t="s">
+      <c r="A105" s="35" t="s">
         <v>308</v>
       </c>
       <c r="B105" s="9" t="s">
@@ -4522,7 +4536,7 @@
       </c>
     </row>
     <row r="106" spans="1:7" ht="63" customHeight="1">
-      <c r="A106" s="40" t="s">
+      <c r="A106" s="35" t="s">
         <v>309</v>
       </c>
       <c r="B106" s="9" t="s">
@@ -4534,10 +4548,10 @@
       <c r="D106" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="E106" s="23" t="s">
+      <c r="E106" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F106" s="19" t="s">
+      <c r="F106" s="44" t="s">
         <v>310</v>
       </c>
       <c r="G106" s="7" t="s">
@@ -4545,7 +4559,7 @@
       </c>
     </row>
     <row r="107" spans="1:7" ht="63" customHeight="1">
-      <c r="A107" s="40" t="s">
+      <c r="A107" s="35" t="s">
         <v>311</v>
       </c>
       <c r="B107" s="9" t="s">
@@ -4557,10 +4571,10 @@
       <c r="D107" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E107" s="23" t="s">
+      <c r="E107" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F107" s="19" t="s">
+      <c r="F107" s="44" t="s">
         <v>310</v>
       </c>
       <c r="G107" s="7" t="s">
@@ -4568,7 +4582,7 @@
       </c>
     </row>
     <row r="108" spans="1:7" ht="63" customHeight="1">
-      <c r="A108" s="40" t="s">
+      <c r="A108" s="35" t="s">
         <v>312</v>
       </c>
       <c r="B108" s="9" t="s">
@@ -4580,10 +4594,10 @@
       <c r="D108" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E108" s="23" t="s">
+      <c r="E108" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F108" s="19" t="s">
+      <c r="F108" s="44" t="s">
         <v>310</v>
       </c>
       <c r="G108" s="7" t="s">
@@ -4591,7 +4605,7 @@
       </c>
     </row>
     <row r="109" spans="1:7" ht="63" customHeight="1">
-      <c r="A109" s="40" t="s">
+      <c r="A109" s="35" t="s">
         <v>313</v>
       </c>
       <c r="B109" s="9" t="s">
@@ -4603,10 +4617,10 @@
       <c r="D109" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="E109" s="23" t="s">
+      <c r="E109" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F109" s="19" t="s">
+      <c r="F109" s="44" t="s">
         <v>310</v>
       </c>
       <c r="G109" s="7" t="s">
@@ -4614,7 +4628,7 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="63" customHeight="1">
-      <c r="A110" s="40" t="s">
+      <c r="A110" s="35" t="s">
         <v>314</v>
       </c>
       <c r="B110" s="9" t="s">
@@ -4626,10 +4640,10 @@
       <c r="D110" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="E110" s="23" t="s">
+      <c r="E110" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F110" s="19" t="s">
+      <c r="F110" s="44" t="s">
         <v>315</v>
       </c>
       <c r="G110" s="7" t="s">
@@ -4637,7 +4651,7 @@
       </c>
     </row>
     <row r="111" spans="1:7" ht="63" customHeight="1">
-      <c r="A111" s="40" t="s">
+      <c r="A111" s="35" t="s">
         <v>316</v>
       </c>
       <c r="B111" s="9" t="s">
@@ -4649,10 +4663,10 @@
       <c r="D111" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E111" s="23" t="s">
+      <c r="E111" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F111" s="19" t="s">
+      <c r="F111" s="44" t="s">
         <v>315</v>
       </c>
       <c r="G111" s="7" t="s">
@@ -4660,7 +4674,7 @@
       </c>
     </row>
     <row r="112" spans="1:7" ht="63" customHeight="1">
-      <c r="A112" s="40" t="s">
+      <c r="A112" s="35" t="s">
         <v>317</v>
       </c>
       <c r="B112" s="9" t="s">
@@ -4672,10 +4686,10 @@
       <c r="D112" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E112" s="23" t="s">
+      <c r="E112" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F112" s="19" t="s">
+      <c r="F112" s="44" t="s">
         <v>315</v>
       </c>
       <c r="G112" s="7" t="s">
@@ -4683,7 +4697,7 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="63" customHeight="1">
-      <c r="A113" s="40" t="s">
+      <c r="A113" s="35" t="s">
         <v>318</v>
       </c>
       <c r="B113" s="9" t="s">
@@ -4695,10 +4709,10 @@
       <c r="D113" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="E113" s="23" t="s">
+      <c r="E113" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F113" s="19" t="s">
+      <c r="F113" s="44" t="s">
         <v>315</v>
       </c>
       <c r="G113" s="7" t="s">
@@ -4706,7 +4720,7 @@
       </c>
     </row>
     <row r="114" spans="1:7" ht="63" customHeight="1">
-      <c r="A114" s="40" t="s">
+      <c r="A114" s="35" t="s">
         <v>319</v>
       </c>
       <c r="B114" s="9" t="s">
@@ -4727,7 +4741,7 @@
       </c>
     </row>
     <row r="115" spans="1:7" ht="63" customHeight="1">
-      <c r="A115" s="40" t="s">
+      <c r="A115" s="35" t="s">
         <v>320</v>
       </c>
       <c r="B115" s="9" t="s">
@@ -4748,7 +4762,7 @@
       </c>
     </row>
     <row r="116" spans="1:7" ht="63" customHeight="1">
-      <c r="A116" s="40" t="s">
+      <c r="A116" s="35" t="s">
         <v>321</v>
       </c>
       <c r="B116" s="9" t="s">
@@ -4769,7 +4783,7 @@
       </c>
     </row>
     <row r="117" spans="1:7" ht="63" customHeight="1">
-      <c r="A117" s="40" t="s">
+      <c r="A117" s="35" t="s">
         <v>322</v>
       </c>
       <c r="B117" s="9" t="s">
@@ -4790,7 +4804,7 @@
       </c>
     </row>
     <row r="118" spans="1:7" ht="63" customHeight="1">
-      <c r="A118" s="40" t="s">
+      <c r="A118" s="35" t="s">
         <v>323</v>
       </c>
       <c r="B118" s="15" t="s">
@@ -4811,7 +4825,7 @@
       </c>
     </row>
     <row r="119" spans="1:7" ht="63" customHeight="1">
-      <c r="A119" s="40" t="s">
+      <c r="A119" s="35" t="s">
         <v>324</v>
       </c>
       <c r="B119" s="9" t="s">
@@ -4832,7 +4846,7 @@
       </c>
     </row>
     <row r="120" spans="1:7" ht="63" customHeight="1">
-      <c r="A120" s="40" t="s">
+      <c r="A120" s="35" t="s">
         <v>325</v>
       </c>
       <c r="B120" s="9" t="s">
@@ -4853,7 +4867,7 @@
       </c>
     </row>
     <row r="121" spans="1:7" ht="63" customHeight="1">
-      <c r="A121" s="40" t="s">
+      <c r="A121" s="35" t="s">
         <v>326</v>
       </c>
       <c r="B121" s="9" t="s">
@@ -4874,7 +4888,7 @@
       </c>
     </row>
     <row r="122" spans="1:7" ht="63" customHeight="1">
-      <c r="A122" s="40" t="s">
+      <c r="A122" s="35" t="s">
         <v>327</v>
       </c>
       <c r="B122" s="9" t="s">
@@ -4895,7 +4909,7 @@
       </c>
     </row>
     <row r="123" spans="1:7" ht="63" customHeight="1">
-      <c r="A123" s="40" t="s">
+      <c r="A123" s="35" t="s">
         <v>328</v>
       </c>
       <c r="B123" s="9" t="s">
@@ -4916,7 +4930,7 @@
       </c>
     </row>
     <row r="124" spans="1:7" ht="63" customHeight="1">
-      <c r="A124" s="40" t="s">
+      <c r="A124" s="35" t="s">
         <v>329</v>
       </c>
       <c r="B124" s="9" t="s">
@@ -4937,7 +4951,7 @@
       </c>
     </row>
     <row r="125" spans="1:7" ht="63" customHeight="1">
-      <c r="A125" s="40" t="s">
+      <c r="A125" s="35" t="s">
         <v>330</v>
       </c>
       <c r="B125" s="9" t="s">
@@ -4958,7 +4972,7 @@
       </c>
     </row>
     <row r="126" spans="1:7" ht="63" customHeight="1">
-      <c r="A126" s="40" t="s">
+      <c r="A126" s="35" t="s">
         <v>331</v>
       </c>
       <c r="B126" s="9" t="s">
@@ -4979,7 +4993,7 @@
       </c>
     </row>
     <row r="127" spans="1:7" ht="63" customHeight="1">
-      <c r="A127" s="40" t="s">
+      <c r="A127" s="35" t="s">
         <v>332</v>
       </c>
       <c r="B127" s="9" t="s">
@@ -5000,7 +5014,7 @@
       </c>
     </row>
     <row r="128" spans="1:7" ht="63" customHeight="1">
-      <c r="A128" s="40" t="s">
+      <c r="A128" s="35" t="s">
         <v>333</v>
       </c>
       <c r="B128" s="9" t="s">
@@ -5021,7 +5035,7 @@
       </c>
     </row>
     <row r="129" spans="1:7" ht="63" customHeight="1">
-      <c r="A129" s="40" t="s">
+      <c r="A129" s="35" t="s">
         <v>334</v>
       </c>
       <c r="B129" s="9" t="s">
@@ -5042,7 +5056,7 @@
       </c>
     </row>
     <row r="130" spans="1:7" ht="63" customHeight="1">
-      <c r="A130" s="40" t="s">
+      <c r="A130" s="35" t="s">
         <v>335</v>
       </c>
       <c r="B130" s="9" t="s">
@@ -5051,7 +5065,7 @@
       <c r="C130" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="D130" s="20" t="s">
+      <c r="D130" s="19" t="s">
         <v>163</v>
       </c>
       <c r="E130" s="8" t="s">
@@ -5063,7 +5077,7 @@
       </c>
     </row>
     <row r="131" spans="1:7" ht="63" customHeight="1">
-      <c r="A131" s="40" t="s">
+      <c r="A131" s="35" t="s">
         <v>337</v>
       </c>
       <c r="B131" s="9" t="s">
@@ -5072,7 +5086,7 @@
       <c r="C131" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D131" s="20" t="s">
+      <c r="D131" s="19" t="s">
         <v>166</v>
       </c>
       <c r="E131" s="8" t="s">
@@ -5084,7 +5098,7 @@
       </c>
     </row>
     <row r="132" spans="1:7" ht="63" customHeight="1">
-      <c r="A132" s="40" t="s">
+      <c r="A132" s="35" t="s">
         <v>338</v>
       </c>
       <c r="B132" s="9" t="s">
@@ -5093,7 +5107,7 @@
       <c r="C132" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="D132" s="20" t="s">
+      <c r="D132" s="19" t="s">
         <v>170</v>
       </c>
       <c r="E132" s="8" t="s">
@@ -5105,7 +5119,7 @@
       </c>
     </row>
     <row r="133" spans="1:7" ht="63" customHeight="1">
-      <c r="A133" s="40" t="s">
+      <c r="A133" s="35" t="s">
         <v>339</v>
       </c>
       <c r="B133" s="9" t="s">
@@ -5114,7 +5128,7 @@
       <c r="C133" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D133" s="20" t="s">
+      <c r="D133" s="19" t="s">
         <v>174</v>
       </c>
       <c r="E133" s="8" t="s">
@@ -5126,7 +5140,7 @@
       </c>
     </row>
     <row r="134" spans="1:7" ht="63" customHeight="1">
-      <c r="A134" s="40" t="s">
+      <c r="A134" s="35" t="s">
         <v>340</v>
       </c>
       <c r="B134" s="9" t="s">
@@ -5135,7 +5149,7 @@
       <c r="C134" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D134" s="20" t="s">
+      <c r="D134" s="19" t="s">
         <v>178</v>
       </c>
       <c r="E134" s="8" t="s">
@@ -5147,16 +5161,16 @@
       </c>
     </row>
     <row r="135" spans="1:7" ht="63" customHeight="1">
-      <c r="A135" s="40" t="s">
+      <c r="A135" s="35" t="s">
         <v>341</v>
       </c>
-      <c r="B135" s="25" t="s">
+      <c r="B135" s="24" t="s">
         <v>180</v>
       </c>
       <c r="C135" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="D135" s="20" t="s">
+      <c r="D135" s="19" t="s">
         <v>182</v>
       </c>
       <c r="E135" s="8" t="s">
@@ -5168,7 +5182,7 @@
       </c>
     </row>
     <row r="136" spans="1:7" ht="63" customHeight="1">
-      <c r="A136" s="40" t="s">
+      <c r="A136" s="35" t="s">
         <v>342</v>
       </c>
       <c r="B136" s="9" t="s">
@@ -5177,7 +5191,7 @@
       <c r="C136" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="D136" s="20" t="s">
+      <c r="D136" s="19" t="s">
         <v>186</v>
       </c>
       <c r="E136" s="8" t="s">
@@ -5189,7 +5203,7 @@
       </c>
     </row>
     <row r="137" spans="1:7" ht="63" customHeight="1">
-      <c r="A137" s="40" t="s">
+      <c r="A137" s="35" t="s">
         <v>343</v>
       </c>
       <c r="B137" s="9" t="s">
@@ -5198,7 +5212,7 @@
       <c r="C137" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D137" s="20" t="s">
+      <c r="D137" s="19" t="s">
         <v>190</v>
       </c>
       <c r="E137" s="8" t="s">
@@ -5210,7 +5224,7 @@
       </c>
     </row>
     <row r="138" spans="1:7" ht="63" customHeight="1">
-      <c r="A138" s="40" t="s">
+      <c r="A138" s="35" t="s">
         <v>344</v>
       </c>
       <c r="B138" s="9" t="s">
@@ -5219,7 +5233,7 @@
       <c r="C138" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D138" s="20" t="s">
+      <c r="D138" s="19" t="s">
         <v>194</v>
       </c>
       <c r="E138" s="8" t="s">
@@ -5231,7 +5245,7 @@
       </c>
     </row>
     <row r="139" spans="1:7" ht="63" customHeight="1">
-      <c r="A139" s="40" t="s">
+      <c r="A139" s="35" t="s">
         <v>345</v>
       </c>
       <c r="B139" s="9" t="s">
@@ -5240,7 +5254,7 @@
       <c r="C139" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D139" s="20" t="s">
+      <c r="D139" s="19" t="s">
         <v>198</v>
       </c>
       <c r="E139" s="8" t="s">
@@ -5252,7 +5266,7 @@
       </c>
     </row>
     <row r="140" spans="1:7" ht="63" customHeight="1">
-      <c r="A140" s="40" t="s">
+      <c r="A140" s="35" t="s">
         <v>346</v>
       </c>
       <c r="B140" s="14" t="s">
@@ -5261,7 +5275,7 @@
       <c r="C140" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="D140" s="20" t="s">
+      <c r="D140" s="19" t="s">
         <v>202</v>
       </c>
       <c r="E140" s="8" t="s">
@@ -5273,7 +5287,7 @@
       </c>
     </row>
     <row r="141" spans="1:7" ht="63" customHeight="1">
-      <c r="A141" s="40" t="s">
+      <c r="A141" s="35" t="s">
         <v>347</v>
       </c>
       <c r="B141" s="14" t="s">
@@ -5282,7 +5296,7 @@
       <c r="C141" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="D141" s="21" t="s">
+      <c r="D141" s="20" t="s">
         <v>205</v>
       </c>
       <c r="E141" s="8" t="s">
@@ -5294,7 +5308,7 @@
       </c>
     </row>
     <row r="142" spans="1:7" ht="63" customHeight="1">
-      <c r="A142" s="40" t="s">
+      <c r="A142" s="35" t="s">
         <v>349</v>
       </c>
       <c r="B142" s="14" t="s">
@@ -5303,7 +5317,7 @@
       <c r="C142" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="D142" s="21" t="s">
+      <c r="D142" s="20" t="s">
         <v>351</v>
       </c>
       <c r="E142" s="8" t="s">
@@ -5315,7 +5329,7 @@
       </c>
     </row>
     <row r="143" spans="1:7" ht="63" customHeight="1">
-      <c r="A143" s="40" t="s">
+      <c r="A143" s="35" t="s">
         <v>352</v>
       </c>
       <c r="B143" s="14" t="s">
@@ -5324,7 +5338,7 @@
       <c r="C143" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="D143" s="21" t="s">
+      <c r="D143" s="20" t="s">
         <v>354</v>
       </c>
       <c r="E143" s="8" t="s">
@@ -5336,7 +5350,7 @@
       </c>
     </row>
     <row r="144" spans="1:7" ht="63" customHeight="1">
-      <c r="A144" s="40" t="s">
+      <c r="A144" s="35" t="s">
         <v>355</v>
       </c>
       <c r="B144" s="14" t="s">
@@ -5345,7 +5359,7 @@
       <c r="C144" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="D144" s="21" t="s">
+      <c r="D144" s="20" t="s">
         <v>357</v>
       </c>
       <c r="E144" s="8" t="s">
@@ -5357,7 +5371,7 @@
       </c>
     </row>
     <row r="145" spans="1:9" ht="63" customHeight="1">
-      <c r="A145" s="40" t="s">
+      <c r="A145" s="35" t="s">
         <v>358</v>
       </c>
       <c r="B145" s="14" t="s">
@@ -5366,7 +5380,7 @@
       <c r="C145" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="D145" s="21" t="s">
+      <c r="D145" s="20" t="s">
         <v>220</v>
       </c>
       <c r="E145" s="8" t="s">
@@ -5378,7 +5392,7 @@
       </c>
     </row>
     <row r="146" spans="1:9" ht="63" customHeight="1">
-      <c r="A146" s="40" t="s">
+      <c r="A146" s="35" t="s">
         <v>360</v>
       </c>
       <c r="B146" s="15" t="s">
@@ -5387,7 +5401,7 @@
       <c r="C146" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="D146" s="21" t="s">
+      <c r="D146" s="20" t="s">
         <v>227</v>
       </c>
       <c r="E146" s="8" t="s">
@@ -5399,7 +5413,7 @@
       </c>
     </row>
     <row r="147" spans="1:9" ht="63" customHeight="1">
-      <c r="A147" s="40" t="s">
+      <c r="A147" s="35" t="s">
         <v>362</v>
       </c>
       <c r="B147" s="14" t="s">
@@ -5408,7 +5422,7 @@
       <c r="C147" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="D147" s="21" t="s">
+      <c r="D147" s="20" t="s">
         <v>231</v>
       </c>
       <c r="E147" s="8" t="s">
@@ -5420,7 +5434,7 @@
       </c>
     </row>
     <row r="148" spans="1:9" ht="63" customHeight="1">
-      <c r="A148" s="40" t="s">
+      <c r="A148" s="35" t="s">
         <v>364</v>
       </c>
       <c r="B148" s="15" t="s">
@@ -5429,7 +5443,7 @@
       <c r="C148" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="D148" s="21" t="s">
+      <c r="D148" s="20" t="s">
         <v>123</v>
       </c>
       <c r="E148" s="8" t="s">
@@ -5441,7 +5455,7 @@
       </c>
     </row>
     <row r="149" spans="1:9" ht="63" customHeight="1">
-      <c r="A149" s="40" t="s">
+      <c r="A149" s="35" t="s">
         <v>365</v>
       </c>
       <c r="B149" s="15" t="s">
@@ -5450,7 +5464,7 @@
       <c r="C149" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="D149" s="20" t="s">
+      <c r="D149" s="19" t="s">
         <v>367</v>
       </c>
       <c r="E149" s="8" t="s">
@@ -5462,7 +5476,7 @@
       </c>
     </row>
     <row r="150" spans="1:9" ht="63" customHeight="1">
-      <c r="A150" s="40" t="s">
+      <c r="A150" s="35" t="s">
         <v>368</v>
       </c>
       <c r="B150" s="15" t="s">
@@ -5471,7 +5485,7 @@
       <c r="C150" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="D150" s="20" t="s">
+      <c r="D150" s="19" t="s">
         <v>370</v>
       </c>
       <c r="E150" s="8" t="s">
@@ -5483,7 +5497,7 @@
       </c>
     </row>
     <row r="151" spans="1:9" ht="63" customHeight="1">
-      <c r="A151" s="40" t="s">
+      <c r="A151" s="35" t="s">
         <v>371</v>
       </c>
       <c r="B151" s="15" t="s">
@@ -5492,7 +5506,7 @@
       <c r="C151" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="D151" s="20" t="s">
+      <c r="D151" s="19" t="s">
         <v>374</v>
       </c>
       <c r="E151" s="8" t="s">
@@ -5504,7 +5518,7 @@
       </c>
     </row>
     <row r="152" spans="1:9" ht="63" customHeight="1">
-      <c r="A152" s="40" t="s">
+      <c r="A152" s="35" t="s">
         <v>375</v>
       </c>
       <c r="B152" s="15" t="s">
@@ -5513,7 +5527,7 @@
       <c r="C152" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="D152" s="20" t="s">
+      <c r="D152" s="19" t="s">
         <v>377</v>
       </c>
       <c r="E152" s="8" t="s">
@@ -5525,7 +5539,7 @@
       </c>
     </row>
     <row r="153" spans="1:9" ht="63" customHeight="1">
-      <c r="A153" s="40" t="s">
+      <c r="A153" s="35" t="s">
         <v>378</v>
       </c>
       <c r="B153" s="15" t="s">
@@ -5534,7 +5548,7 @@
       <c r="C153" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="D153" s="20" t="s">
+      <c r="D153" s="19" t="s">
         <v>269</v>
       </c>
       <c r="E153" s="8" t="s">
@@ -5546,16 +5560,16 @@
       </c>
     </row>
     <row r="154" spans="1:9" ht="63" customHeight="1">
-      <c r="A154" s="40" t="s">
+      <c r="A154" s="35" t="s">
         <v>381</v>
       </c>
-      <c r="B154" s="22" t="s">
+      <c r="B154" s="21" t="s">
         <v>78</v>
       </c>
       <c r="C154" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="D154" s="20" t="s">
+      <c r="D154" s="19" t="s">
         <v>266</v>
       </c>
       <c r="E154" s="8" t="s">
@@ -5567,16 +5581,16 @@
       </c>
     </row>
     <row r="155" spans="1:9" ht="63" customHeight="1">
-      <c r="A155" s="40" t="s">
+      <c r="A155" s="35" t="s">
         <v>383</v>
       </c>
-      <c r="B155" s="22" t="s">
+      <c r="B155" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C155" s="22" t="s">
+      <c r="C155" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="D155" s="24" t="s">
+      <c r="D155" s="23" t="s">
         <v>123</v>
       </c>
       <c r="E155" s="8" t="s">
@@ -5588,16 +5602,16 @@
       </c>
     </row>
     <row r="156" spans="1:9" ht="63" customHeight="1">
-      <c r="A156" s="40" t="s">
+      <c r="A156" s="35" t="s">
         <v>385</v>
       </c>
-      <c r="B156" s="22" t="s">
+      <c r="B156" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C156" s="22" t="s">
+      <c r="C156" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="D156" s="24" t="s">
+      <c r="D156" s="23" t="s">
         <v>279</v>
       </c>
       <c r="E156" s="8" t="s">
@@ -5609,7 +5623,7 @@
       </c>
     </row>
     <row r="157" spans="1:9" ht="63" customHeight="1">
-      <c r="A157" s="40" t="s">
+      <c r="A157" s="35" t="s">
         <v>387</v>
       </c>
       <c r="B157" s="15" t="s">
@@ -5618,13 +5632,13 @@
       <c r="C157" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="D157" s="21" t="s">
+      <c r="D157" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="E157" s="23" t="s">
+      <c r="E157" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F157" s="19" t="s">
+      <c r="F157" s="44" t="s">
         <v>390</v>
       </c>
       <c r="G157" s="7" t="s">
@@ -5632,27 +5646,27 @@
       </c>
     </row>
     <row r="158" spans="1:9" ht="33" customHeight="1">
-      <c r="A158" s="38" t="s">
+      <c r="A158" s="40" t="s">
         <v>391</v>
       </c>
-      <c r="B158" s="38"/>
-      <c r="C158" s="38"/>
-      <c r="D158" s="38"/>
-      <c r="E158" s="38"/>
-      <c r="F158" s="38"/>
-      <c r="G158" s="38"/>
+      <c r="B158" s="40"/>
+      <c r="C158" s="40"/>
+      <c r="D158" s="40"/>
+      <c r="E158" s="40"/>
+      <c r="F158" s="40"/>
+      <c r="G158" s="40"/>
       <c r="H158" s="4"/>
       <c r="I158" s="4"/>
     </row>
     <row r="159" spans="1:9" ht="64.5" customHeight="1">
-      <c r="A159" s="40" t="s">
+      <c r="A159" s="35" t="s">
         <v>392</v>
       </c>
-      <c r="B159" s="41"/>
+      <c r="B159" s="36"/>
       <c r="C159" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="D159" s="42" t="s">
+      <c r="D159" s="37" t="s">
         <v>394</v>
       </c>
       <c r="E159" s="8" t="s">
@@ -5664,16 +5678,16 @@
       </c>
     </row>
     <row r="160" spans="1:9" ht="64.5" customHeight="1">
-      <c r="A160" s="40" t="s">
+      <c r="A160" s="35" t="s">
         <v>395</v>
       </c>
-      <c r="B160" s="41" t="s">
+      <c r="B160" s="36" t="s">
         <v>284</v>
       </c>
       <c r="C160" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D160" s="42" t="s">
+      <c r="D160" s="37" t="s">
         <v>396</v>
       </c>
       <c r="E160" s="8" t="s">
@@ -5685,16 +5699,16 @@
       </c>
     </row>
     <row r="161" spans="1:9" ht="64.5" customHeight="1">
-      <c r="A161" s="40" t="s">
+      <c r="A161" s="35" t="s">
         <v>397</v>
       </c>
-      <c r="B161" s="41" t="s">
+      <c r="B161" s="36" t="s">
         <v>287</v>
       </c>
       <c r="C161" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D161" s="42" t="s">
+      <c r="D161" s="37" t="s">
         <v>61</v>
       </c>
       <c r="E161" s="8" t="s">
@@ -5706,7 +5720,7 @@
       </c>
     </row>
     <row r="162" spans="1:9" ht="64.5" customHeight="1">
-      <c r="A162" s="40" t="s">
+      <c r="A162" s="35" t="s">
         <v>398</v>
       </c>
       <c r="B162" s="14" t="s">
@@ -5715,7 +5729,7 @@
       <c r="C162" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D162" s="42" t="s">
+      <c r="D162" s="37" t="s">
         <v>64</v>
       </c>
       <c r="E162" s="8" t="s">
@@ -5730,7 +5744,7 @@
       </c>
     </row>
     <row r="163" spans="1:9" ht="64.5" customHeight="1">
-      <c r="A163" s="40" t="s">
+      <c r="A163" s="35" t="s">
         <v>399</v>
       </c>
       <c r="B163" s="14" t="s">
@@ -5739,7 +5753,7 @@
       <c r="C163" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D163" s="42" t="s">
+      <c r="D163" s="37" t="s">
         <v>67</v>
       </c>
       <c r="E163" s="8" t="s">
@@ -5751,7 +5765,7 @@
       </c>
     </row>
     <row r="164" spans="1:9" ht="64.5" customHeight="1">
-      <c r="A164" s="40" t="s">
+      <c r="A164" s="35" t="s">
         <v>400</v>
       </c>
       <c r="B164" s="14" t="s">
@@ -5760,7 +5774,7 @@
       <c r="C164" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D164" s="42" t="s">
+      <c r="D164" s="37" t="s">
         <v>70</v>
       </c>
       <c r="E164" s="8" t="s">
@@ -5772,7 +5786,7 @@
       </c>
     </row>
     <row r="165" spans="1:9" ht="64.5" customHeight="1">
-      <c r="A165" s="40" t="s">
+      <c r="A165" s="35" t="s">
         <v>401</v>
       </c>
       <c r="B165" s="14" t="s">
@@ -5781,7 +5795,7 @@
       <c r="C165" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D165" s="42" t="s">
+      <c r="D165" s="37" t="s">
         <v>402</v>
       </c>
       <c r="E165" s="8" t="s">
@@ -5796,7 +5810,7 @@
       </c>
     </row>
     <row r="166" spans="1:9" ht="64.5" customHeight="1">
-      <c r="A166" s="40" t="s">
+      <c r="A166" s="35" t="s">
         <v>403</v>
       </c>
       <c r="B166" s="14" t="s">
@@ -5805,7 +5819,7 @@
       <c r="C166" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D166" s="42" t="s">
+      <c r="D166" s="37" t="s">
         <v>76</v>
       </c>
       <c r="E166" s="8" t="s">
@@ -5817,7 +5831,7 @@
       </c>
     </row>
     <row r="167" spans="1:9" ht="64.5" customHeight="1">
-      <c r="A167" s="40" t="s">
+      <c r="A167" s="35" t="s">
         <v>404</v>
       </c>
       <c r="B167" s="11" t="s">
@@ -5826,7 +5840,7 @@
       <c r="C167" s="14" t="s">
         <v>405</v>
       </c>
-      <c r="D167" s="42" t="s">
+      <c r="D167" s="37" t="s">
         <v>406</v>
       </c>
       <c r="E167" s="8" t="s">
@@ -5838,7 +5852,7 @@
       </c>
     </row>
     <row r="168" spans="1:9" ht="64.5" customHeight="1">
-      <c r="A168" s="40" t="s">
+      <c r="A168" s="35" t="s">
         <v>407</v>
       </c>
       <c r="B168" s="9" t="s">
@@ -5859,7 +5873,7 @@
       </c>
     </row>
     <row r="169" spans="1:9" ht="64.5" customHeight="1">
-      <c r="A169" s="40" t="s">
+      <c r="A169" s="35" t="s">
         <v>408</v>
       </c>
       <c r="B169" s="9" t="s">
@@ -5880,7 +5894,7 @@
       </c>
     </row>
     <row r="170" spans="1:9" ht="64.5" customHeight="1">
-      <c r="A170" s="40" t="s">
+      <c r="A170" s="35" t="s">
         <v>409</v>
       </c>
       <c r="B170" s="9" t="s">
@@ -5901,7 +5915,7 @@
       </c>
     </row>
     <row r="171" spans="1:9" ht="64.5" customHeight="1">
-      <c r="A171" s="40" t="s">
+      <c r="A171" s="35" t="s">
         <v>410</v>
       </c>
       <c r="B171" s="9" t="s">
@@ -5922,7 +5936,7 @@
       </c>
     </row>
     <row r="172" spans="1:9" ht="64.5" customHeight="1">
-      <c r="A172" s="40" t="s">
+      <c r="A172" s="35" t="s">
         <v>412</v>
       </c>
       <c r="B172" s="9" t="s">
@@ -5943,7 +5957,7 @@
       </c>
     </row>
     <row r="173" spans="1:9" ht="64.5" customHeight="1">
-      <c r="A173" s="40" t="s">
+      <c r="A173" s="35" t="s">
         <v>415</v>
       </c>
       <c r="B173" s="9" t="s">
@@ -5964,7 +5978,7 @@
       </c>
     </row>
     <row r="174" spans="1:9" ht="64.5" customHeight="1">
-      <c r="A174" s="40" t="s">
+      <c r="A174" s="35" t="s">
         <v>417</v>
       </c>
       <c r="B174" s="9" t="s">
@@ -5985,7 +5999,7 @@
       </c>
     </row>
     <row r="175" spans="1:9" ht="64.5" customHeight="1">
-      <c r="A175" s="40" t="s">
+      <c r="A175" s="35" t="s">
         <v>418</v>
       </c>
       <c r="B175" s="9" t="s">
@@ -6006,7 +6020,7 @@
       </c>
     </row>
     <row r="176" spans="1:9" ht="64.5" customHeight="1">
-      <c r="A176" s="40" t="s">
+      <c r="A176" s="35" t="s">
         <v>419</v>
       </c>
       <c r="B176" s="9" t="s">
@@ -6027,7 +6041,7 @@
       </c>
     </row>
     <row r="177" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A177" s="40" t="s">
+      <c r="A177" s="35" t="s">
         <v>420</v>
       </c>
       <c r="B177" s="9" t="s">
@@ -6039,10 +6053,10 @@
       <c r="D177" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="E177" s="23" t="s">
+      <c r="E177" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F177" s="19" t="s">
+      <c r="F177" s="44" t="s">
         <v>306</v>
       </c>
       <c r="G177" s="7" t="s">
@@ -6050,7 +6064,7 @@
       </c>
     </row>
     <row r="178" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A178" s="40" t="s">
+      <c r="A178" s="35" t="s">
         <v>421</v>
       </c>
       <c r="B178" s="9" t="s">
@@ -6062,10 +6076,10 @@
       <c r="D178" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E178" s="23" t="s">
+      <c r="E178" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F178" s="19" t="s">
+      <c r="F178" s="44" t="s">
         <v>306</v>
       </c>
       <c r="G178" s="7" t="s">
@@ -6073,7 +6087,7 @@
       </c>
     </row>
     <row r="179" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A179" s="40" t="s">
+      <c r="A179" s="35" t="s">
         <v>422</v>
       </c>
       <c r="B179" s="9" t="s">
@@ -6085,10 +6099,10 @@
       <c r="D179" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E179" s="23" t="s">
+      <c r="E179" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F179" s="19" t="s">
+      <c r="F179" s="44" t="s">
         <v>306</v>
       </c>
       <c r="G179" s="7" t="s">
@@ -6096,7 +6110,7 @@
       </c>
     </row>
     <row r="180" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A180" s="40" t="s">
+      <c r="A180" s="35" t="s">
         <v>423</v>
       </c>
       <c r="B180" s="9" t="s">
@@ -6108,10 +6122,10 @@
       <c r="D180" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="E180" s="23" t="s">
+      <c r="E180" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F180" s="19" t="s">
+      <c r="F180" s="44" t="s">
         <v>306</v>
       </c>
       <c r="G180" s="7" t="s">
@@ -6119,7 +6133,7 @@
       </c>
     </row>
     <row r="181" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A181" s="40" t="s">
+      <c r="A181" s="35" t="s">
         <v>424</v>
       </c>
       <c r="B181" s="9" t="s">
@@ -6131,10 +6145,10 @@
       <c r="D181" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="E181" s="23" t="s">
+      <c r="E181" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F181" s="19" t="s">
+      <c r="F181" s="44" t="s">
         <v>425</v>
       </c>
       <c r="G181" s="7" t="s">
@@ -6142,7 +6156,7 @@
       </c>
     </row>
     <row r="182" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A182" s="40" t="s">
+      <c r="A182" s="35" t="s">
         <v>426</v>
       </c>
       <c r="B182" s="9" t="s">
@@ -6154,10 +6168,10 @@
       <c r="D182" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E182" s="23" t="s">
+      <c r="E182" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F182" s="19" t="s">
+      <c r="F182" s="44" t="s">
         <v>425</v>
       </c>
       <c r="G182" s="7" t="s">
@@ -6165,7 +6179,7 @@
       </c>
     </row>
     <row r="183" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A183" s="40" t="s">
+      <c r="A183" s="35" t="s">
         <v>427</v>
       </c>
       <c r="B183" s="9" t="s">
@@ -6177,10 +6191,10 @@
       <c r="D183" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E183" s="23" t="s">
+      <c r="E183" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F183" s="19" t="s">
+      <c r="F183" s="44" t="s">
         <v>425</v>
       </c>
       <c r="G183" s="7" t="s">
@@ -6188,7 +6202,7 @@
       </c>
     </row>
     <row r="184" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A184" s="40" t="s">
+      <c r="A184" s="35" t="s">
         <v>428</v>
       </c>
       <c r="B184" s="9" t="s">
@@ -6200,10 +6214,10 @@
       <c r="D184" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="E184" s="23" t="s">
+      <c r="E184" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F184" s="19" t="s">
+      <c r="F184" s="44" t="s">
         <v>425</v>
       </c>
       <c r="G184" s="7" t="s">
@@ -6211,7 +6225,7 @@
       </c>
     </row>
     <row r="185" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A185" s="40" t="s">
+      <c r="A185" s="35" t="s">
         <v>429</v>
       </c>
       <c r="B185" s="9" t="s">
@@ -6232,13 +6246,13 @@
       </c>
     </row>
     <row r="186" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A186" s="40" t="s">
+      <c r="A186" s="35" t="s">
         <v>430</v>
       </c>
       <c r="B186" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C186" s="31" t="s">
+      <c r="C186" s="29" t="s">
         <v>126</v>
       </c>
       <c r="D186" s="18" t="s">
@@ -6253,7 +6267,7 @@
       </c>
     </row>
     <row r="187" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A187" s="40" t="s">
+      <c r="A187" s="35" t="s">
         <v>431</v>
       </c>
       <c r="B187" s="9" t="s">
@@ -6274,7 +6288,7 @@
       </c>
     </row>
     <row r="188" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A188" s="40" t="s">
+      <c r="A188" s="35" t="s">
         <v>432</v>
       </c>
       <c r="B188" s="9" t="s">
@@ -6295,7 +6309,7 @@
       </c>
     </row>
     <row r="189" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A189" s="40" t="s">
+      <c r="A189" s="35" t="s">
         <v>433</v>
       </c>
       <c r="B189" s="9" t="s">
@@ -6316,7 +6330,7 @@
       </c>
     </row>
     <row r="190" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A190" s="40" t="s">
+      <c r="A190" s="35" t="s">
         <v>434</v>
       </c>
       <c r="B190" s="9" t="s">
@@ -6337,7 +6351,7 @@
       </c>
     </row>
     <row r="191" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A191" s="40" t="s">
+      <c r="A191" s="35" t="s">
         <v>435</v>
       </c>
       <c r="B191" s="9" t="s">
@@ -6358,7 +6372,7 @@
       </c>
     </row>
     <row r="192" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A192" s="40" t="s">
+      <c r="A192" s="35" t="s">
         <v>436</v>
       </c>
       <c r="B192" s="9" t="s">
@@ -6379,7 +6393,7 @@
       </c>
     </row>
     <row r="193" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A193" s="40" t="s">
+      <c r="A193" s="35" t="s">
         <v>437</v>
       </c>
       <c r="B193" s="9" t="s">
@@ -6388,7 +6402,7 @@
       <c r="C193" s="14" t="s">
         <v>438</v>
       </c>
-      <c r="D193" s="32" t="s">
+      <c r="D193" s="30" t="s">
         <v>123</v>
       </c>
       <c r="E193" s="8" t="s">
@@ -6400,7 +6414,7 @@
       </c>
     </row>
     <row r="194" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A194" s="40" t="s">
+      <c r="A194" s="35" t="s">
         <v>439</v>
       </c>
       <c r="B194" s="9" t="s">
@@ -6409,7 +6423,7 @@
       <c r="C194" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="D194" s="32" t="s">
+      <c r="D194" s="30" t="s">
         <v>123</v>
       </c>
       <c r="E194" s="8" t="s">
@@ -6421,7 +6435,7 @@
       </c>
     </row>
     <row r="195" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A195" s="40" t="s">
+      <c r="A195" s="35" t="s">
         <v>441</v>
       </c>
       <c r="B195" s="9" t="s">
@@ -6442,7 +6456,7 @@
       </c>
     </row>
     <row r="196" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A196" s="40" t="s">
+      <c r="A196" s="35" t="s">
         <v>442</v>
       </c>
       <c r="B196" s="9" t="s">
@@ -6463,16 +6477,16 @@
       </c>
     </row>
     <row r="197" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A197" s="40" t="s">
+      <c r="A197" s="35" t="s">
         <v>443</v>
       </c>
       <c r="B197" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C197" s="28" t="s">
+      <c r="C197" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="D197" s="29" t="s">
+      <c r="D197" s="27" t="s">
         <v>144</v>
       </c>
       <c r="E197" s="8" t="s">
@@ -6484,16 +6498,16 @@
       </c>
     </row>
     <row r="198" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A198" s="40" t="s">
+      <c r="A198" s="35" t="s">
         <v>444</v>
       </c>
       <c r="B198" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C198" s="28" t="s">
+      <c r="C198" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="D198" s="29" t="s">
+      <c r="D198" s="27" t="s">
         <v>153</v>
       </c>
       <c r="E198" s="8" t="s">
@@ -6505,7 +6519,7 @@
       </c>
     </row>
     <row r="199" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A199" s="40" t="s">
+      <c r="A199" s="35" t="s">
         <v>445</v>
       </c>
       <c r="B199" s="9" t="s">
@@ -6526,7 +6540,7 @@
       </c>
     </row>
     <row r="200" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A200" s="40" t="s">
+      <c r="A200" s="35" t="s">
         <v>446</v>
       </c>
       <c r="B200" s="9" t="s">
@@ -6547,7 +6561,7 @@
       </c>
     </row>
     <row r="201" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A201" s="40" t="s">
+      <c r="A201" s="35" t="s">
         <v>447</v>
       </c>
       <c r="B201" s="9" t="s">
@@ -6568,7 +6582,7 @@
       </c>
     </row>
     <row r="202" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A202" s="36" t="s">
+      <c r="A202" s="33" t="s">
         <v>448</v>
       </c>
       <c r="B202" s="9" t="s">
@@ -6577,7 +6591,7 @@
       <c r="C202" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="D202" s="20" t="s">
+      <c r="D202" s="19" t="s">
         <v>163</v>
       </c>
       <c r="E202" s="8" t="s">
@@ -6589,7 +6603,7 @@
       </c>
     </row>
     <row r="203" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A203" s="36" t="s">
+      <c r="A203" s="33" t="s">
         <v>449</v>
       </c>
       <c r="B203" s="9" t="s">
@@ -6598,7 +6612,7 @@
       <c r="C203" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D203" s="20" t="s">
+      <c r="D203" s="19" t="s">
         <v>166</v>
       </c>
       <c r="E203" s="8" t="s">
@@ -6610,7 +6624,7 @@
       </c>
     </row>
     <row r="204" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A204" s="36" t="s">
+      <c r="A204" s="33" t="s">
         <v>450</v>
       </c>
       <c r="B204" s="9" t="s">
@@ -6619,7 +6633,7 @@
       <c r="C204" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="D204" s="20" t="s">
+      <c r="D204" s="19" t="s">
         <v>170</v>
       </c>
       <c r="E204" s="8" t="s">
@@ -6631,7 +6645,7 @@
       </c>
     </row>
     <row r="205" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A205" s="36" t="s">
+      <c r="A205" s="33" t="s">
         <v>451</v>
       </c>
       <c r="B205" s="9" t="s">
@@ -6640,7 +6654,7 @@
       <c r="C205" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D205" s="20" t="s">
+      <c r="D205" s="19" t="s">
         <v>174</v>
       </c>
       <c r="E205" s="8" t="s">
@@ -6652,7 +6666,7 @@
       </c>
     </row>
     <row r="206" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A206" s="36" t="s">
+      <c r="A206" s="33" t="s">
         <v>452</v>
       </c>
       <c r="B206" s="9" t="s">
@@ -6661,7 +6675,7 @@
       <c r="C206" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D206" s="20" t="s">
+      <c r="D206" s="19" t="s">
         <v>178</v>
       </c>
       <c r="E206" s="8" t="s">
@@ -6673,16 +6687,16 @@
       </c>
     </row>
     <row r="207" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A207" s="36" t="s">
+      <c r="A207" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="B207" s="30" t="s">
+      <c r="B207" s="28" t="s">
         <v>180</v>
       </c>
       <c r="C207" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="D207" s="20" t="s">
+      <c r="D207" s="19" t="s">
         <v>182</v>
       </c>
       <c r="E207" s="8" t="s">
@@ -6694,7 +6708,7 @@
       </c>
     </row>
     <row r="208" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A208" s="36" t="s">
+      <c r="A208" s="33" t="s">
         <v>454</v>
       </c>
       <c r="B208" s="9" t="s">
@@ -6703,7 +6717,7 @@
       <c r="C208" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="D208" s="20" t="s">
+      <c r="D208" s="19" t="s">
         <v>186</v>
       </c>
       <c r="E208" s="8" t="s">
@@ -6715,7 +6729,7 @@
       </c>
     </row>
     <row r="209" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A209" s="36" t="s">
+      <c r="A209" s="33" t="s">
         <v>455</v>
       </c>
       <c r="B209" s="9" t="s">
@@ -6724,7 +6738,7 @@
       <c r="C209" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="D209" s="20" t="s">
+      <c r="D209" s="19" t="s">
         <v>170</v>
       </c>
       <c r="E209" s="8" t="s">
@@ -6736,7 +6750,7 @@
       </c>
     </row>
     <row r="210" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A210" s="36" t="s">
+      <c r="A210" s="33" t="s">
         <v>457</v>
       </c>
       <c r="B210" s="9" t="s">
@@ -6745,7 +6759,7 @@
       <c r="C210" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D210" s="20" t="s">
+      <c r="D210" s="19" t="s">
         <v>190</v>
       </c>
       <c r="E210" s="8" t="s">
@@ -6757,7 +6771,7 @@
       </c>
     </row>
     <row r="211" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A211" s="36" t="s">
+      <c r="A211" s="33" t="s">
         <v>458</v>
       </c>
       <c r="B211" s="9" t="s">
@@ -6766,7 +6780,7 @@
       <c r="C211" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D211" s="20" t="s">
+      <c r="D211" s="19" t="s">
         <v>194</v>
       </c>
       <c r="E211" s="8" t="s">
@@ -6778,7 +6792,7 @@
       </c>
     </row>
     <row r="212" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A212" s="36" t="s">
+      <c r="A212" s="33" t="s">
         <v>459</v>
       </c>
       <c r="B212" s="9" t="s">
@@ -6787,7 +6801,7 @@
       <c r="C212" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D212" s="20" t="s">
+      <c r="D212" s="19" t="s">
         <v>198</v>
       </c>
       <c r="E212" s="8" t="s">
@@ -6799,7 +6813,7 @@
       </c>
     </row>
     <row r="213" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A213" s="36" t="s">
+      <c r="A213" s="33" t="s">
         <v>460</v>
       </c>
       <c r="B213" s="14" t="s">
@@ -6808,7 +6822,7 @@
       <c r="C213" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="D213" s="20" t="s">
+      <c r="D213" s="19" t="s">
         <v>202</v>
       </c>
       <c r="E213" s="8" t="s">
@@ -6820,7 +6834,7 @@
       </c>
     </row>
     <row r="214" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A214" s="36" t="s">
+      <c r="A214" s="33" t="s">
         <v>461</v>
       </c>
       <c r="B214" s="14" t="s">
@@ -6829,7 +6843,7 @@
       <c r="C214" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="D214" s="21" t="s">
+      <c r="D214" s="20" t="s">
         <v>462</v>
       </c>
       <c r="E214" s="8" t="s">
@@ -6841,7 +6855,7 @@
       </c>
     </row>
     <row r="215" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A215" s="36" t="s">
+      <c r="A215" s="33" t="s">
         <v>463</v>
       </c>
       <c r="B215" s="14" t="s">
@@ -6850,7 +6864,7 @@
       <c r="C215" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="D215" s="21" t="s">
+      <c r="D215" s="20" t="s">
         <v>351</v>
       </c>
       <c r="E215" s="8" t="s">
@@ -6862,7 +6876,7 @@
       </c>
     </row>
     <row r="216" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A216" s="36" t="s">
+      <c r="A216" s="33" t="s">
         <v>464</v>
       </c>
       <c r="B216" s="14" t="s">
@@ -6871,7 +6885,7 @@
       <c r="C216" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="D216" s="21" t="s">
+      <c r="D216" s="20" t="s">
         <v>354</v>
       </c>
       <c r="E216" s="8" t="s">
@@ -6883,7 +6897,7 @@
       </c>
     </row>
     <row r="217" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A217" s="36" t="s">
+      <c r="A217" s="33" t="s">
         <v>465</v>
       </c>
       <c r="B217" s="15" t="s">
@@ -6892,7 +6906,7 @@
       <c r="C217" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="D217" s="21" t="s">
+      <c r="D217" s="20" t="s">
         <v>357</v>
       </c>
       <c r="E217" s="8" t="s">
@@ -6904,7 +6918,7 @@
       </c>
     </row>
     <row r="218" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A218" s="36" t="s">
+      <c r="A218" s="33" t="s">
         <v>466</v>
       </c>
       <c r="B218" s="15" t="s">
@@ -6913,7 +6927,7 @@
       <c r="C218" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="D218" s="21" t="s">
+      <c r="D218" s="20" t="s">
         <v>468</v>
       </c>
       <c r="E218" s="8" t="s">
@@ -6925,7 +6939,7 @@
       </c>
     </row>
     <row r="219" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A219" s="36" t="s">
+      <c r="A219" s="33" t="s">
         <v>469</v>
       </c>
       <c r="B219" s="15" t="s">
@@ -6934,7 +6948,7 @@
       <c r="C219" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="D219" s="21" t="s">
+      <c r="D219" s="20" t="s">
         <v>471</v>
       </c>
       <c r="E219" s="8" t="s">
@@ -6946,7 +6960,7 @@
       </c>
     </row>
     <row r="220" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A220" s="36" t="s">
+      <c r="A220" s="33" t="s">
         <v>472</v>
       </c>
       <c r="B220" s="15" t="s">
@@ -6955,7 +6969,7 @@
       <c r="C220" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="D220" s="21" t="s">
+      <c r="D220" s="20" t="s">
         <v>231</v>
       </c>
       <c r="E220" s="8" t="s">
@@ -6967,7 +6981,7 @@
       </c>
     </row>
     <row r="221" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A221" s="36" t="s">
+      <c r="A221" s="33" t="s">
         <v>473</v>
       </c>
       <c r="B221" s="15" t="s">
@@ -6976,7 +6990,7 @@
       <c r="C221" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="D221" s="21" t="s">
+      <c r="D221" s="20" t="s">
         <v>476</v>
       </c>
       <c r="E221" s="8" t="s">
@@ -6988,7 +7002,7 @@
       </c>
     </row>
     <row r="222" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A222" s="36" t="s">
+      <c r="A222" s="33" t="s">
         <v>477</v>
       </c>
       <c r="B222" s="15" t="s">
@@ -6997,7 +7011,7 @@
       <c r="C222" s="15" t="s">
         <v>479</v>
       </c>
-      <c r="D222" s="21" t="s">
+      <c r="D222" s="20" t="s">
         <v>480</v>
       </c>
       <c r="E222" s="8" t="s">
@@ -7009,7 +7023,7 @@
       </c>
     </row>
     <row r="223" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A223" s="36" t="s">
+      <c r="A223" s="33" t="s">
         <v>481</v>
       </c>
       <c r="B223" s="15" t="s">
@@ -7018,7 +7032,7 @@
       <c r="C223" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="D223" s="21" t="s">
+      <c r="D223" s="20" t="s">
         <v>123</v>
       </c>
       <c r="E223" s="8" t="s">
@@ -7030,7 +7044,7 @@
       </c>
     </row>
     <row r="224" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A224" s="36" t="s">
+      <c r="A224" s="33" t="s">
         <v>482</v>
       </c>
       <c r="B224" s="15" t="s">
@@ -7039,7 +7053,7 @@
       <c r="C224" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="D224" s="21" t="s">
+      <c r="D224" s="20" t="s">
         <v>123</v>
       </c>
       <c r="E224" s="8" t="s">
@@ -7051,7 +7065,7 @@
       </c>
     </row>
     <row r="225" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A225" s="36" t="s">
+      <c r="A225" s="33" t="s">
         <v>483</v>
       </c>
       <c r="B225" s="15" t="s">
@@ -7060,7 +7074,7 @@
       <c r="C225" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="D225" s="20" t="s">
+      <c r="D225" s="19" t="s">
         <v>484</v>
       </c>
       <c r="E225" s="8" t="s">
@@ -7072,7 +7086,7 @@
       </c>
     </row>
     <row r="226" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A226" s="36" t="s">
+      <c r="A226" s="33" t="s">
         <v>485</v>
       </c>
       <c r="B226" s="15" t="s">
@@ -7081,7 +7095,7 @@
       <c r="C226" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="D226" s="20" t="s">
+      <c r="D226" s="19" t="s">
         <v>254</v>
       </c>
       <c r="E226" s="8" t="s">
@@ -7093,7 +7107,7 @@
       </c>
     </row>
     <row r="227" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A227" s="36" t="s">
+      <c r="A227" s="33" t="s">
         <v>486</v>
       </c>
       <c r="B227" s="15" t="s">
@@ -7102,7 +7116,7 @@
       <c r="C227" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="D227" s="20" t="s">
+      <c r="D227" s="19" t="s">
         <v>374</v>
       </c>
       <c r="E227" s="8" t="s">
@@ -7114,7 +7128,7 @@
       </c>
     </row>
     <row r="228" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A228" s="36" t="s">
+      <c r="A228" s="33" t="s">
         <v>487</v>
       </c>
       <c r="B228" s="15" t="s">
@@ -7123,7 +7137,7 @@
       <c r="C228" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="D228" s="20" t="s">
+      <c r="D228" s="19" t="s">
         <v>377</v>
       </c>
       <c r="E228" s="8" t="s">
@@ -7135,7 +7149,7 @@
       </c>
     </row>
     <row r="229" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A229" s="36" t="s">
+      <c r="A229" s="33" t="s">
         <v>488</v>
       </c>
       <c r="B229" s="15" t="s">
@@ -7144,7 +7158,7 @@
       <c r="C229" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="D229" s="21" t="s">
+      <c r="D229" s="20" t="s">
         <v>269</v>
       </c>
       <c r="E229" s="8" t="s">
@@ -7156,7 +7170,7 @@
       </c>
     </row>
     <row r="230" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A230" s="36" t="s">
+      <c r="A230" s="33" t="s">
         <v>489</v>
       </c>
       <c r="B230" s="15" t="s">
@@ -7165,7 +7179,7 @@
       <c r="C230" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="D230" s="20" t="s">
+      <c r="D230" s="19" t="s">
         <v>266</v>
       </c>
       <c r="E230" s="8" t="s">
@@ -7177,7 +7191,7 @@
       </c>
     </row>
     <row r="231" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A231" s="36" t="s">
+      <c r="A231" s="33" t="s">
         <v>490</v>
       </c>
       <c r="B231" s="15" t="s">
@@ -7186,7 +7200,7 @@
       <c r="C231" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="D231" s="20" t="s">
+      <c r="D231" s="19" t="s">
         <v>492</v>
       </c>
       <c r="E231" s="8" t="s">
@@ -7198,16 +7212,16 @@
       </c>
     </row>
     <row r="232" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A232" s="36" t="s">
+      <c r="A232" s="33" t="s">
         <v>493</v>
       </c>
       <c r="B232" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C232" s="22" t="s">
+      <c r="C232" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D232" s="24" t="s">
+      <c r="D232" s="23" t="s">
         <v>123</v>
       </c>
       <c r="E232" s="8" t="s">
@@ -7219,16 +7233,16 @@
       </c>
     </row>
     <row r="233" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A233" s="36" t="s">
+      <c r="A233" s="33" t="s">
         <v>494</v>
       </c>
       <c r="B233" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C233" s="22" t="s">
+      <c r="C233" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="D233" s="24" t="s">
+      <c r="D233" s="23" t="s">
         <v>123</v>
       </c>
       <c r="E233" s="8" t="s">
@@ -7248,39 +7262,39 @@
     <mergeCell ref="A14:G14"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F86 F98:F113 F157 F23:F28 F30:F37 F168:F184" xr:uid="{66959F1D-77F4-4958-8D75-BBF2E43CB8E8}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F86 F30:F37 F157 F23:F28 F98:F113 F168:F184"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F103" r:id="rId1" xr:uid="{B216586E-E1B7-4D5E-B1BB-10C324291091}"/>
-    <hyperlink ref="F106" r:id="rId2" xr:uid="{00FBE0FD-11FB-456D-9B37-4AE3B7F50A78}"/>
-    <hyperlink ref="F24" r:id="rId3" xr:uid="{CAC4BAF6-0084-437A-A2A7-66FB6FB1AD85}"/>
-    <hyperlink ref="F26" r:id="rId4" xr:uid="{0BA8EE83-120E-4AD8-A9DA-4738A7FB8642}"/>
-    <hyperlink ref="F27" r:id="rId5" xr:uid="{73DC0ADA-23CE-4666-9E11-38EBD2FCF1FE}"/>
-    <hyperlink ref="F30" r:id="rId6" xr:uid="{AF4CCD28-C348-4F47-AE26-A3F8B00BD70C}"/>
-    <hyperlink ref="F34" r:id="rId7" xr:uid="{0CB09024-9CEE-4986-B3AC-CF4996E44B93}"/>
-    <hyperlink ref="F177" r:id="rId8" xr:uid="{D6A69677-9E0A-456E-A9E5-2D1B38463B92}"/>
-    <hyperlink ref="F31" r:id="rId9" xr:uid="{08CF3DFB-D4C0-4DF1-9E66-FBD2D11B3F5C}"/>
-    <hyperlink ref="F32" r:id="rId10" xr:uid="{AA7355EF-E66E-410E-BB43-2D1A2B9B9130}"/>
-    <hyperlink ref="F33" r:id="rId11" xr:uid="{A91E3538-B47A-484F-81CC-90B2691D3F11}"/>
-    <hyperlink ref="F36" r:id="rId12" xr:uid="{40846CB7-30F3-48AB-9417-B97914194EC8}"/>
-    <hyperlink ref="F35" r:id="rId13" xr:uid="{9921F958-A362-4D22-80D8-770E4A0EC26B}"/>
-    <hyperlink ref="F37" r:id="rId14" xr:uid="{BDD2BA2F-3745-4884-A43E-19007B14EE74}"/>
-    <hyperlink ref="F86" r:id="rId15" xr:uid="{28EFB9F5-6361-4D41-856E-31ACF044827B}"/>
-    <hyperlink ref="F107" r:id="rId16" xr:uid="{A1DE3E58-F623-4285-9711-EE9FE17689E7}"/>
-    <hyperlink ref="F108" r:id="rId17" xr:uid="{55D7F4C8-2AF1-4468-8A25-D6837DB2A1AD}"/>
-    <hyperlink ref="F109" r:id="rId18" xr:uid="{32C9FC43-7896-4AFA-AE4E-7A75D99B106B}"/>
-    <hyperlink ref="F110" r:id="rId19" xr:uid="{C6D1D5A2-7EC8-4D11-B8CA-2C9164516496}"/>
-    <hyperlink ref="F111" r:id="rId20" xr:uid="{25166FAF-7038-4CDD-80B9-F44F2C150E19}"/>
-    <hyperlink ref="F112" r:id="rId21" xr:uid="{4F426803-6F90-4486-9F6D-3D7C56FE9B9E}"/>
-    <hyperlink ref="F113" r:id="rId22" xr:uid="{B573AEA3-3995-403D-87EB-A929DFD45B0C}"/>
-    <hyperlink ref="F157" r:id="rId23" xr:uid="{FCDD914F-E57A-4F17-A44D-4DA1350D5299}"/>
-    <hyperlink ref="F178" r:id="rId24" xr:uid="{96254438-2AEC-4ECF-9761-12663EF28415}"/>
-    <hyperlink ref="F179" r:id="rId25" xr:uid="{05CA39B7-E7C4-4356-9189-7C7D467DA857}"/>
-    <hyperlink ref="F180" r:id="rId26" xr:uid="{2BD2CDB9-DA73-4CFE-9F40-38681B3CB731}"/>
-    <hyperlink ref="F181" r:id="rId27" xr:uid="{BF6B1D36-700C-4871-A685-BEE8B81DE714}"/>
-    <hyperlink ref="F182" r:id="rId28" xr:uid="{CEB6E1A8-BB28-4A0D-8174-763689CB2480}"/>
-    <hyperlink ref="F183" r:id="rId29" xr:uid="{7B5F726D-17AC-476B-BF70-016FEE3CEAC0}"/>
-    <hyperlink ref="F184" r:id="rId30" xr:uid="{E77B34B8-24B3-4DF9-9BD1-B844F93F2683}"/>
+    <hyperlink ref="F103" r:id="rId1" location="Лист1!A58"/>
+    <hyperlink ref="F106" r:id="rId2" location="Лист1!A38"/>
+    <hyperlink ref="F24" r:id="rId3" location="Лист1!A18"/>
+    <hyperlink ref="F26" r:id="rId4" location="Лист1!A23"/>
+    <hyperlink ref="F27" r:id="rId5" location="Лист1!A18"/>
+    <hyperlink ref="F177" r:id="rId6" location="Лист1!A48"/>
+    <hyperlink ref="F33" r:id="rId7" location="Лист1!A28"/>
+    <hyperlink ref="F37" r:id="rId8" location="Лист1!A33"/>
+    <hyperlink ref="F110" r:id="rId9" location="Лист1!A43"/>
+    <hyperlink ref="F157" r:id="rId10" location="Лист1!A8"/>
+    <hyperlink ref="F181" r:id="rId11" location="Лист1!A53"/>
+    <hyperlink ref="F86" r:id="rId12" location="Лист1!A3"/>
+    <hyperlink ref="F36" r:id="rId13" location="Лист1!A33"/>
+    <hyperlink ref="F35" r:id="rId14" location="Лист1!A33"/>
+    <hyperlink ref="F34" r:id="rId15" location="Лист1!A33"/>
+    <hyperlink ref="F32" r:id="rId16" location="Лист1!A28"/>
+    <hyperlink ref="F31" r:id="rId17" location="Лист1!A28"/>
+    <hyperlink ref="F30" r:id="rId18" location="Лист1!A28"/>
+    <hyperlink ref="F108" r:id="rId19" location="Лист1!A38"/>
+    <hyperlink ref="F109" r:id="rId20" location="Лист1!A38"/>
+    <hyperlink ref="F107" r:id="rId21" location="Лист1!A38"/>
+    <hyperlink ref="F111" r:id="rId22" location="Лист1!A43"/>
+    <hyperlink ref="F112" r:id="rId23" location="Лист1!A43"/>
+    <hyperlink ref="F113" r:id="rId24" location="Лист1!A43"/>
+    <hyperlink ref="F178" r:id="rId25" location="Лист1!A48"/>
+    <hyperlink ref="F179" r:id="rId26" location="Лист1!A48"/>
+    <hyperlink ref="F180" r:id="rId27" location="Лист1!A48"/>
+    <hyperlink ref="F182" r:id="rId28" location="Лист1!A53"/>
+    <hyperlink ref="F183" r:id="rId29" location="Лист1!A53"/>
+    <hyperlink ref="F184" r:id="rId30" location="Лист1!A53"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
